--- a/data/pca/factorExposure/factorExposure_2013-03-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-7.851616097007577e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002100427519438802</v>
+      </c>
+      <c r="C2">
+        <v>0.03375224055919274</v>
+      </c>
+      <c r="D2">
+        <v>-0.003923989778633314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001539716764934327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005946424733520831</v>
+      </c>
+      <c r="C4">
+        <v>0.08491863875883102</v>
+      </c>
+      <c r="D4">
+        <v>0.07839935202344266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003802936452670767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0135154314755696</v>
+      </c>
+      <c r="C6">
+        <v>0.1136252204441454</v>
+      </c>
+      <c r="D6">
+        <v>0.03250543936110833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001801758189322661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00476462583094422</v>
+      </c>
+      <c r="C7">
+        <v>0.05642060658209755</v>
+      </c>
+      <c r="D7">
+        <v>0.03259997756794811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002381023304516505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005668742909582733</v>
+      </c>
+      <c r="C8">
+        <v>0.03876246886779888</v>
+      </c>
+      <c r="D8">
+        <v>0.0411743601483639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003610108836079793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004058260186784485</v>
+      </c>
+      <c r="C9">
+        <v>0.07093757811868263</v>
+      </c>
+      <c r="D9">
+        <v>0.07022067513325382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004567701156291822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005224578546134759</v>
+      </c>
+      <c r="C10">
+        <v>0.05954033187879267</v>
+      </c>
+      <c r="D10">
+        <v>-0.2011754282193034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002469844288559405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005310931251107442</v>
+      </c>
+      <c r="C11">
+        <v>0.08101941536573404</v>
+      </c>
+      <c r="D11">
+        <v>0.05872001185285138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003671641405507318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003920586249484947</v>
+      </c>
+      <c r="C12">
+        <v>0.06478303434986231</v>
+      </c>
+      <c r="D12">
+        <v>0.04520181392134213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003665527239874811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008507791162238971</v>
+      </c>
+      <c r="C13">
+        <v>0.0669587665980621</v>
+      </c>
+      <c r="D13">
+        <v>0.06858518127972513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0009736700666815981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001332558189752006</v>
+      </c>
+      <c r="C14">
+        <v>0.0460831942984559</v>
+      </c>
+      <c r="D14">
+        <v>0.007640123533282057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009750077704331983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005780562189058099</v>
+      </c>
+      <c r="C15">
+        <v>0.04198826697757972</v>
+      </c>
+      <c r="D15">
+        <v>0.03133339662622166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001152898870082499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004920730129946945</v>
+      </c>
+      <c r="C16">
+        <v>0.06672504924335991</v>
+      </c>
+      <c r="D16">
+        <v>0.04501331784936335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004322871246369502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008751740691503187</v>
+      </c>
+      <c r="C20">
+        <v>0.0678315005965856</v>
+      </c>
+      <c r="D20">
+        <v>0.04634802047160713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005406016611314948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009807585989839907</v>
+      </c>
+      <c r="C21">
+        <v>0.02306500852764401</v>
+      </c>
+      <c r="D21">
+        <v>0.03603370934460325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01809255891556336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007007637644566171</v>
+      </c>
+      <c r="C22">
+        <v>0.09422721288282694</v>
+      </c>
+      <c r="D22">
+        <v>0.0993363199039006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01841282555998412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006822666717270912</v>
+      </c>
+      <c r="C23">
+        <v>0.09510748067600924</v>
+      </c>
+      <c r="D23">
+        <v>0.09970693015428404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001743834971292573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005050160280251983</v>
+      </c>
+      <c r="C24">
+        <v>0.07590930934801872</v>
+      </c>
+      <c r="D24">
+        <v>0.05777428147967333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003541215999686318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002744256413119026</v>
+      </c>
+      <c r="C25">
+        <v>0.07880267357205994</v>
+      </c>
+      <c r="D25">
+        <v>0.06425213640947597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005871134822235282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00344302183331171</v>
+      </c>
+      <c r="C26">
+        <v>0.04180318730617994</v>
+      </c>
+      <c r="D26">
+        <v>0.02310802476069069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004129596910182541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001238153274021351</v>
+      </c>
+      <c r="C28">
+        <v>0.1070425341240608</v>
+      </c>
+      <c r="D28">
+        <v>-0.3196048378798074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0007923814522040153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002970878229482777</v>
+      </c>
+      <c r="C29">
+        <v>0.04886211728887853</v>
+      </c>
+      <c r="D29">
+        <v>0.003102141562691408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002924221968446175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008907915852361042</v>
+      </c>
+      <c r="C30">
+        <v>0.1453725449858484</v>
+      </c>
+      <c r="D30">
+        <v>0.0998726665573572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003888299268697734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00604919460717071</v>
+      </c>
+      <c r="C31">
+        <v>0.04528528701568075</v>
+      </c>
+      <c r="D31">
+        <v>0.0319261739807418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000552998625650054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003800299721997605</v>
+      </c>
+      <c r="C32">
+        <v>0.04060222175403244</v>
+      </c>
+      <c r="D32">
+        <v>0.02436946548817375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002709481092376945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007908386596027526</v>
+      </c>
+      <c r="C33">
+        <v>0.08694910327015413</v>
+      </c>
+      <c r="D33">
+        <v>0.06961074805967345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004244033139634158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003796205184508165</v>
+      </c>
+      <c r="C34">
+        <v>0.05890667826796758</v>
+      </c>
+      <c r="D34">
+        <v>0.04902131629847057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002414095817456526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004691341387009616</v>
+      </c>
+      <c r="C35">
+        <v>0.03946564235885621</v>
+      </c>
+      <c r="D35">
+        <v>0.01279439900843797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003955121428228409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001424179834225224</v>
+      </c>
+      <c r="C36">
+        <v>0.02494092804914863</v>
+      </c>
+      <c r="D36">
+        <v>0.01929014470008022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002272122990486535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009420475397044591</v>
+      </c>
+      <c r="C38">
+        <v>0.03395941641051083</v>
+      </c>
+      <c r="D38">
+        <v>0.02124303767869192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01221574903186923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001079942221540515</v>
+      </c>
+      <c r="C39">
+        <v>0.1174998210251696</v>
+      </c>
+      <c r="D39">
+        <v>0.07077050549719759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009430301107122126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002058420078701752</v>
+      </c>
+      <c r="C40">
+        <v>0.08850890052498553</v>
+      </c>
+      <c r="D40">
+        <v>0.01448317360005503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001972817099462014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007143569835474667</v>
+      </c>
+      <c r="C41">
+        <v>0.03786984124328573</v>
+      </c>
+      <c r="D41">
+        <v>0.03527002714830136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003099903295402887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00349225014907183</v>
+      </c>
+      <c r="C43">
+        <v>0.05177965751242699</v>
+      </c>
+      <c r="D43">
+        <v>0.02360276400388924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002609780684505022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003076312532952623</v>
+      </c>
+      <c r="C44">
+        <v>0.1129014726518821</v>
+      </c>
+      <c r="D44">
+        <v>0.07062227030709213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00148565496203378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002286399044223173</v>
+      </c>
+      <c r="C46">
+        <v>0.03571138274064701</v>
+      </c>
+      <c r="D46">
+        <v>0.02641130348476656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00019995972477978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002648440829703021</v>
+      </c>
+      <c r="C47">
+        <v>0.03792153155063058</v>
+      </c>
+      <c r="D47">
+        <v>0.0253040247446189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003376058097742679</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006365866352696758</v>
+      </c>
+      <c r="C48">
+        <v>0.02915799195769537</v>
+      </c>
+      <c r="D48">
+        <v>0.03044204637730948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01319275426176134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01446616543485247</v>
+      </c>
+      <c r="C49">
+        <v>0.1829572784303734</v>
+      </c>
+      <c r="D49">
+        <v>0.01371101600847004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001266904545412913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003489287213621703</v>
+      </c>
+      <c r="C50">
+        <v>0.04412196078375462</v>
+      </c>
+      <c r="D50">
+        <v>0.03521270113713239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000379025029149052</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.0042577508096174</v>
+      </c>
+      <c r="C51">
+        <v>0.02533817181255273</v>
+      </c>
+      <c r="D51">
+        <v>0.02021452773598134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001205733516539225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02014763185473022</v>
+      </c>
+      <c r="C53">
+        <v>0.1696603934647802</v>
+      </c>
+      <c r="D53">
+        <v>0.03676745368960249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001118555521506043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008651042410474888</v>
+      </c>
+      <c r="C54">
+        <v>0.05625281203205003</v>
+      </c>
+      <c r="D54">
+        <v>0.04131133757985601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003494188212206747</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009216942377817975</v>
+      </c>
+      <c r="C55">
+        <v>0.1106691558391059</v>
+      </c>
+      <c r="D55">
+        <v>0.04314595356627784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003903936219885506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01962529447097397</v>
+      </c>
+      <c r="C56">
+        <v>0.1763285083974885</v>
+      </c>
+      <c r="D56">
+        <v>0.03434994791760489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006876749236535286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01923224836550111</v>
+      </c>
+      <c r="C58">
+        <v>0.1087061121991551</v>
+      </c>
+      <c r="D58">
+        <v>0.05493239950219138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006144363420383594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008866836131027298</v>
+      </c>
+      <c r="C59">
+        <v>0.1593802871357004</v>
+      </c>
+      <c r="D59">
+        <v>-0.3043940011071192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003616306058681729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02296555663176782</v>
+      </c>
+      <c r="C60">
+        <v>0.2242303755924548</v>
+      </c>
+      <c r="D60">
+        <v>0.01979563507406435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01425309735317392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002117781726736841</v>
+      </c>
+      <c r="C61">
+        <v>0.09605544985161758</v>
+      </c>
+      <c r="D61">
+        <v>0.05570537179692787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.170035049794839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440781751768413</v>
+      </c>
+      <c r="C62">
+        <v>0.08911122409082226</v>
+      </c>
+      <c r="D62">
+        <v>0.04645097688376536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007944739460244172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00610606203663177</v>
+      </c>
+      <c r="C63">
+        <v>0.05663314268333032</v>
+      </c>
+      <c r="D63">
+        <v>0.02374411532496559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004802181028304698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01474723908145605</v>
+      </c>
+      <c r="C64">
+        <v>0.1048881799563472</v>
+      </c>
+      <c r="D64">
+        <v>0.05826935246641272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.00275858600623286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01718331209889693</v>
+      </c>
+      <c r="C65">
+        <v>0.1212190695238517</v>
+      </c>
+      <c r="D65">
+        <v>0.01644311688596977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007252659334358562</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01229692006831636</v>
+      </c>
+      <c r="C66">
+        <v>0.1596441689349165</v>
+      </c>
+      <c r="D66">
+        <v>0.1120450004546332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003790532231189968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.015476138391572</v>
+      </c>
+      <c r="C67">
+        <v>0.06485210649552761</v>
+      </c>
+      <c r="D67">
+        <v>0.02977183657115651</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006066330359083052</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0003755007316092804</v>
+      </c>
+      <c r="C68">
+        <v>0.08746253400719267</v>
+      </c>
+      <c r="D68">
+        <v>-0.2521857313664233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002896223911239544</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005941051779782618</v>
+      </c>
+      <c r="C69">
+        <v>0.05065033799325607</v>
+      </c>
+      <c r="D69">
+        <v>0.03814541154947181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-8.037290408497328e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001847528170640504</v>
+      </c>
+      <c r="C70">
+        <v>0.002945570104028059</v>
+      </c>
+      <c r="D70">
+        <v>0.001456783029998296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002236325301972183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005559766858418606</v>
+      </c>
+      <c r="C71">
+        <v>0.09744215679719383</v>
+      </c>
+      <c r="D71">
+        <v>-0.2997125915695478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004468858817206612</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01538760355816712</v>
+      </c>
+      <c r="C72">
+        <v>0.1501151818236139</v>
+      </c>
+      <c r="D72">
+        <v>0.02438590008938594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01209016522131211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02900056094051869</v>
+      </c>
+      <c r="C73">
+        <v>0.2771003465064868</v>
+      </c>
+      <c r="D73">
+        <v>0.04796517822062964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004231415771543599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001321488247336582</v>
+      </c>
+      <c r="C74">
+        <v>0.1054105047012673</v>
+      </c>
+      <c r="D74">
+        <v>0.03871906557763109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002037529902264158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01062341649935405</v>
+      </c>
+      <c r="C75">
+        <v>0.1308741619242645</v>
+      </c>
+      <c r="D75">
+        <v>0.02301597721672567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009582550022868385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02118365279630857</v>
+      </c>
+      <c r="C76">
+        <v>0.1509398464781653</v>
+      </c>
+      <c r="D76">
+        <v>0.06405561498114766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001405676876377792</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02394374423197079</v>
+      </c>
+      <c r="C77">
+        <v>0.1315214225162743</v>
+      </c>
+      <c r="D77">
+        <v>0.05323436484603732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008423079550589126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01419579623584068</v>
+      </c>
+      <c r="C78">
+        <v>0.09525716338351953</v>
+      </c>
+      <c r="D78">
+        <v>0.0651727126009343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02483688479179358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03692073704581743</v>
+      </c>
+      <c r="C79">
+        <v>0.1570301623152239</v>
+      </c>
+      <c r="D79">
+        <v>0.0321427776106522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004785281936311344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01048344015602825</v>
+      </c>
+      <c r="C80">
+        <v>0.0429057682532054</v>
+      </c>
+      <c r="D80">
+        <v>0.03041112389024226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001040745764226018</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0146585379754553</v>
+      </c>
+      <c r="C81">
+        <v>0.1282644271761238</v>
+      </c>
+      <c r="D81">
+        <v>0.04368454838590209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005999172520065555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01952296714140257</v>
+      </c>
+      <c r="C82">
+        <v>0.1458797871305048</v>
+      </c>
+      <c r="D82">
+        <v>0.04154457714052148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00876432007499774</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009964250533611206</v>
+      </c>
+      <c r="C83">
+        <v>0.05736540174527797</v>
+      </c>
+      <c r="D83">
+        <v>0.05411391521118551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01289635208403046</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01164340404454298</v>
+      </c>
+      <c r="C84">
+        <v>0.03866644291206577</v>
+      </c>
+      <c r="D84">
+        <v>-0.00805519142951463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01606572722462395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776081630912678</v>
+      </c>
+      <c r="C85">
+        <v>0.1306952227633666</v>
+      </c>
+      <c r="D85">
+        <v>0.04499329910357382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009352935585539351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005335317476278267</v>
+      </c>
+      <c r="C86">
+        <v>0.0487597130732162</v>
+      </c>
+      <c r="D86">
+        <v>0.02353999171797367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004868184403740377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01024029910940392</v>
+      </c>
+      <c r="C87">
+        <v>0.1333526267761164</v>
+      </c>
+      <c r="D87">
+        <v>0.06227895043432517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01280984459949724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00310216524981423</v>
+      </c>
+      <c r="C88">
+        <v>0.0675746309544456</v>
+      </c>
+      <c r="D88">
+        <v>0.008746032586328436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01423495646151967</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00204644183839929</v>
+      </c>
+      <c r="C89">
+        <v>0.1458258971231097</v>
+      </c>
+      <c r="D89">
+        <v>-0.3511033704154341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002172237164959072</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006503044964225527</v>
+      </c>
+      <c r="C90">
+        <v>0.1209855396091728</v>
+      </c>
+      <c r="D90">
+        <v>-0.3239904360977983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001335036897215714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01019495056691146</v>
+      </c>
+      <c r="C91">
+        <v>0.1029650238607278</v>
+      </c>
+      <c r="D91">
+        <v>0.02428686047355587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00819174096749954</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>2.4886899078647e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1341162769932862</v>
+      </c>
+      <c r="D92">
+        <v>-0.3358599588575177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-3.662371918420408e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004513494812671573</v>
+      </c>
+      <c r="C93">
+        <v>0.1048386155059574</v>
+      </c>
+      <c r="D93">
+        <v>-0.3149759663796912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004659707151299458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02220732223436023</v>
+      </c>
+      <c r="C94">
+        <v>0.1539607598010808</v>
+      </c>
+      <c r="D94">
+        <v>0.0471644336317423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004561411064837312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01604123112488221</v>
+      </c>
+      <c r="C95">
+        <v>0.1278697258178855</v>
+      </c>
+      <c r="D95">
+        <v>0.06223313918286737</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001182115312899305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03394933468963181</v>
+      </c>
+      <c r="C97">
+        <v>0.1921878820975974</v>
+      </c>
+      <c r="D97">
+        <v>0.008873860232544111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003616856839464789</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03575189079477411</v>
+      </c>
+      <c r="C98">
+        <v>0.2466847200858989</v>
+      </c>
+      <c r="D98">
+        <v>0.05463014414610366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.983513447554241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827483896603388</v>
+      </c>
+      <c r="C99">
+        <v>-0.1114578535206339</v>
+      </c>
+      <c r="D99">
+        <v>-0.02811699424848636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0007441330846135767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003016418825822781</v>
+      </c>
+      <c r="C101">
+        <v>0.04888683789982126</v>
+      </c>
+      <c r="D101">
+        <v>0.003575093456517619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
